--- a/exe/TSV/Excel/W16_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/W16_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AAE01-8A19-406B-920B-56527AD140FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A80CDA-3DAB-410C-834F-396C5E1BFCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="5160" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="4560" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W16_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -5381,7 +5381,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H83" s="4">
         <v>322</v>

--- a/exe/TSV/Excel/W16_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/W16_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A80CDA-3DAB-410C-834F-396C5E1BFCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24209CF-7624-4D3B-BAB8-E6BB698415AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="4560" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="4920" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W16_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -1027,23 +1027,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2180,7 +2184,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="H16" s="4">
         <v>312</v>
@@ -2963,7 +2967,7 @@
         <v>1213</v>
       </c>
       <c r="H32" s="4">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5334,7 +5338,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="H82" s="4">
         <v>322</v>
@@ -5381,7 +5385,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="H83" s="4">
         <v>322</v>
